--- a/Output/1988/Maryland/Maryland.xlsx
+++ b/Output/1988/Maryland/Maryland.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="322">
   <si>
     <t>State</t>
   </si>
@@ -777,9 +777,6 @@
   </si>
   <si>
     <t>PRINCE GEORGES COUNTY (northern portion)</t>
-  </si>
-  <si>
-    <t>11M16</t>
   </si>
   <si>
     <t>PRINCE GEORGES COUNTY (southern portion)</t>
@@ -2344,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="Y13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4154,8 +4151,8 @@
       <c r="J38" t="s">
         <v>41</v>
       </c>
-      <c r="K38" t="s">
-        <v>250</v>
+      <c r="K38" s="2">
+        <v>111416</v>
       </c>
       <c r="L38" t="s">
         <v>41</v>
@@ -4205,7 +4202,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4271,7 +4268,7 @@
         <v>40</v>
       </c>
       <c r="Y39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -4279,7 +4276,7 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4345,7 +4342,7 @@
         <v>15</v>
       </c>
       <c r="Y40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -4353,7 +4350,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4427,7 +4424,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4501,7 +4498,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4513,7 +4510,7 @@
         <v>22155</v>
       </c>
       <c r="G43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H43" t="s">
         <v>40</v>
@@ -4570,7 +4567,7 @@
         <v>61</v>
       </c>
       <c r="Z43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -4578,7 +4575,7 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4652,7 +4649,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4726,7 +4723,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4800,7 +4797,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4874,7 +4871,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4948,7 +4945,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -5476,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -6212,7 +6209,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -6898,13 +6895,13 @@
         <v>26</v>
       </c>
       <c r="B184" t="s">
+        <v>252</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
         <v>253</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6912,7 +6909,7 @@
         <v>26</v>
       </c>
       <c r="B185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6926,7 +6923,7 @@
         <v>26</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -6940,7 +6937,7 @@
         <v>26</v>
       </c>
       <c r="B187" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -6954,7 +6951,7 @@
         <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -6968,7 +6965,7 @@
         <v>26</v>
       </c>
       <c r="B189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -6982,13 +6979,13 @@
         <v>26</v>
       </c>
       <c r="B190" t="s">
+        <v>261</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
         <v>262</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6996,7 +6993,7 @@
         <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -7010,7 +7007,7 @@
         <v>26</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -7024,7 +7021,7 @@
         <v>26</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -7038,7 +7035,7 @@
         <v>26</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -7052,7 +7049,7 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -7066,7 +7063,7 @@
         <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -7080,13 +7077,13 @@
         <v>26</v>
       </c>
       <c r="B197" t="s">
+        <v>269</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
         <v>270</v>
-      </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7094,7 +7091,7 @@
         <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -7108,7 +7105,7 @@
         <v>26</v>
       </c>
       <c r="B199" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -7122,7 +7119,7 @@
         <v>26</v>
       </c>
       <c r="B200" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -7136,13 +7133,13 @@
         <v>26</v>
       </c>
       <c r="B201" t="s">
+        <v>277</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
         <v>278</v>
-      </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7150,7 +7147,7 @@
         <v>26</v>
       </c>
       <c r="B202" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -7164,13 +7161,13 @@
         <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7178,13 +7175,13 @@
         <v>26</v>
       </c>
       <c r="B204" t="s">
+        <v>283</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
         <v>284</v>
-      </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7192,13 +7189,13 @@
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7206,7 +7203,7 @@
         <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -7220,13 +7217,13 @@
         <v>26</v>
       </c>
       <c r="B207" t="s">
+        <v>286</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
         <v>287</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7234,7 +7231,7 @@
         <v>26</v>
       </c>
       <c r="B208" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -7248,13 +7245,13 @@
         <v>26</v>
       </c>
       <c r="B209" t="s">
+        <v>288</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
         <v>289</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7262,7 +7259,7 @@
         <v>26</v>
       </c>
       <c r="B210" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -7276,7 +7273,7 @@
         <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -7290,7 +7287,7 @@
         <v>26</v>
       </c>
       <c r="B212" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -7304,7 +7301,7 @@
         <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -7318,7 +7315,7 @@
         <v>26</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -7332,7 +7329,7 @@
         <v>26</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -7346,7 +7343,7 @@
         <v>26</v>
       </c>
       <c r="B216" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -7360,7 +7357,7 @@
         <v>26</v>
       </c>
       <c r="B217" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -7374,13 +7371,13 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7388,13 +7385,13 @@
         <v>26</v>
       </c>
       <c r="B219" t="s">
+        <v>300</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
         <v>301</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7402,13 +7399,13 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7416,7 +7413,7 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -7430,7 +7427,7 @@
         <v>26</v>
       </c>
       <c r="B222" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -7444,7 +7441,7 @@
         <v>26</v>
       </c>
       <c r="B223" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -7458,7 +7455,7 @@
         <v>26</v>
       </c>
       <c r="B224" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -7472,7 +7469,7 @@
         <v>26</v>
       </c>
       <c r="B225" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -7486,7 +7483,7 @@
         <v>26</v>
       </c>
       <c r="B226" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -7500,7 +7497,7 @@
         <v>26</v>
       </c>
       <c r="B227" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -7514,13 +7511,13 @@
         <v>26</v>
       </c>
       <c r="B228" t="s">
+        <v>312</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
         <v>313</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7528,7 +7525,7 @@
         <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -7542,13 +7539,13 @@
         <v>26</v>
       </c>
       <c r="B230" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
